--- a/CHILE/00 Causas Antropógenas/Por Gas/Emisiones por Gas 1990-2016 Chile.xlsx
+++ b/CHILE/00 Causas Antropógenas/Por Gas/Emisiones por Gas 1990-2016 Chile.xlsx
@@ -5,29 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ICC\CHILE\Todos los gases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\CHILE\00 Causas Antropógenas\Por Gas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606ADDD4-A41E-4037-B9CF-A07E1FBD6A49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358FAC81-8F71-45E8-A057-436538684BF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Ark1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -178,9 +167,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -762,16 +751,16 @@
     <xf numFmtId="41" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="18" fillId="38" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -791,10 +780,10 @@
     <xf numFmtId="41" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -861,7 +850,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -881,7 +870,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -900,65 +889,6 @@
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -998,7 +928,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1018,7 +947,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1038,27 +967,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1116,241 +1025,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1409,7 +1084,47 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1448,27 +1163,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1507,7 +1202,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1527,7 +1222,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1623,183 +1318,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1895,6 +1414,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1914,6 +1434,65 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1993,7 +1572,163 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2014,6 +1749,66 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="33" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2091,6 +1886,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2110,6 +1906,199 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2271,183 +2260,183 @@
     <tableColumn id="9" xr3:uid="{72AD2C7F-8A4D-4C89-9D9E-03AFD0C5A6EE}" name="Variación Anual CO2" dataDxfId="66" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile[[#This Row],[CO2]]-B2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{50C21A66-C62B-4967-829F-20ABB479E2B1}" name="Variación Anual CO2 (CO2eq)" dataDxfId="46" dataCellStyle="Millares [0]">
+    <tableColumn id="22" xr3:uid="{50C21A66-C62B-4967-829F-20ABB479E2B1}" name="Variación Anual CO2 (CO2eq)" dataDxfId="65" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile[[#This Row],[CO2 (CO2eq)]]-C2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{65CC7CEF-FE7C-462E-8843-95FEB3701EFA}" name="CO2 per cápita" dataDxfId="44" dataCellStyle="Millares [0]">
+    <tableColumn id="16" xr3:uid="{65CC7CEF-FE7C-462E-8843-95FEB3701EFA}" name="CO2 per cápita" dataDxfId="64" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>(Todo_Gases_Chile[[#This Row],[CO2]]/Todo_Gases_Chile[[#This Row],[Población]])*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B1469A0C-13B9-4DC0-9AE8-84E502D39DF6}" name="CH4" dataDxfId="45" dataCellStyle="Millares [0]"/>
-    <tableColumn id="23" xr3:uid="{68578F54-3D77-421C-BD09-AE7CBA0B2721}" name="CH4 (CO2eq)" dataDxfId="65" dataCellStyle="Millares [0]">
+    <tableColumn id="3" xr3:uid="{B1469A0C-13B9-4DC0-9AE8-84E502D39DF6}" name="CH4" dataDxfId="63" dataCellStyle="Millares [0]"/>
+    <tableColumn id="23" xr3:uid="{68578F54-3D77-421C-BD09-AE7CBA0B2721}" name="CH4 (CO2eq)" dataDxfId="62" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>Todo_Gases_Chile[[#This Row],[CH4]]*25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{76A3A978-B1CB-4056-9C55-50B202E177CA}" name="Variación CH4" dataDxfId="64" dataCellStyle="Millares [0]">
+    <tableColumn id="10" xr3:uid="{76A3A978-B1CB-4056-9C55-50B202E177CA}" name="Variación CH4" dataDxfId="61" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile[[#This Row],[CH4]]-G2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{7572F078-815B-4860-9ADB-7779642E320B}" name="Variación CH4 (CO2eq)" dataDxfId="36" dataCellStyle="Millares [0]">
+    <tableColumn id="24" xr3:uid="{7572F078-815B-4860-9ADB-7779642E320B}" name="Variación CH4 (CO2eq)" dataDxfId="60" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile[[#This Row],[Variación CH4]]*25,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{6066960E-1D3E-4D08-A15D-8F20C2F1C37B}" name="CH4 per cápita" dataDxfId="34" dataCellStyle="Millares [0]">
+    <tableColumn id="17" xr3:uid="{6066960E-1D3E-4D08-A15D-8F20C2F1C37B}" name="CH4 per cápita" dataDxfId="59" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>(Todo_Gases_Chile[[#This Row],[CH4 (CO2eq)]]/Todo_Gases_Chile[[#This Row],[Población]])*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AA1635BE-D69C-4432-920F-F6374432728C}" name="N2O" dataDxfId="35" dataCellStyle="Millares [0]"/>
-    <tableColumn id="25" xr3:uid="{A454B457-35E4-4DA8-A3CC-54BA3D41F6A7}" name="N2O (CO2eq)" dataDxfId="63" dataCellStyle="Millares [0]">
+    <tableColumn id="4" xr3:uid="{AA1635BE-D69C-4432-920F-F6374432728C}" name="N2O" dataDxfId="58" dataCellStyle="Millares [0]"/>
+    <tableColumn id="25" xr3:uid="{A454B457-35E4-4DA8-A3CC-54BA3D41F6A7}" name="N2O (CO2eq)" dataDxfId="57" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>Todo_Gases_Chile[[#This Row],[N2O]]*298</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{9505DA53-C20A-4828-AC82-DC4957809C0F}" name="Variación N2O" dataDxfId="62" dataCellStyle="Millares [0]">
+    <tableColumn id="11" xr3:uid="{9505DA53-C20A-4828-AC82-DC4957809C0F}" name="Variación N2O" dataDxfId="56" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile[[#This Row],[N2O]]-L2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{546C1A59-CC95-4396-8E6B-B1C898BF8C05}" name="Variación N2O (CO2eq)" dataDxfId="32" dataCellStyle="Millares [0]">
+    <tableColumn id="26" xr3:uid="{546C1A59-CC95-4396-8E6B-B1C898BF8C05}" name="Variación N2O (CO2eq)" dataDxfId="55" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile[[#This Row],[Variación N2O]]*298,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{86CD1BA9-884B-46AA-A2F4-344BC73776CD}" name="N2O per cápita" dataDxfId="30" dataCellStyle="Millares [0]">
+    <tableColumn id="18" xr3:uid="{86CD1BA9-884B-46AA-A2F4-344BC73776CD}" name="N2O per cápita" dataDxfId="54" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>(Todo_Gases_Chile[[#This Row],[N2O (CO2eq)]]/Todo_Gases_Chile[[#This Row],[Población]])*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5D683973-1FDA-4FAB-BA15-842122FFB471}" name="HFC" dataDxfId="31" dataCellStyle="Millares [0]">
+    <tableColumn id="5" xr3:uid="{5D683973-1FDA-4FAB-BA15-842122FFB471}" name="HFC" dataDxfId="53" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>+Todo_Gases_Chile[[#This Row],[HFC (CO2eq)]]/7400</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{D564890F-8271-43EB-A840-8825ACF5CB11}" name="Variación HFC" dataDxfId="60" dataCellStyle="Millares [0]">
+    <tableColumn id="28" xr3:uid="{D564890F-8271-43EB-A840-8825ACF5CB11}" name="Variación HFC" dataDxfId="52" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile[[#This Row],[HFC]]-Q2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{F85F969B-F532-42F3-BEB9-E7EAEA187D6E}" name="HFC (CO2eq)" dataDxfId="61" dataCellStyle="Millares [0]"/>
-    <tableColumn id="12" xr3:uid="{C48DE327-A905-49E6-947F-04DB1AAD67DA}" name="Variación HFC (CO2eq)" dataDxfId="26" dataCellStyle="Millares [0]">
+    <tableColumn id="27" xr3:uid="{F85F969B-F532-42F3-BEB9-E7EAEA187D6E}" name="HFC (CO2eq)" dataDxfId="51" dataCellStyle="Millares [0]"/>
+    <tableColumn id="12" xr3:uid="{C48DE327-A905-49E6-947F-04DB1AAD67DA}" name="Variación HFC (CO2eq)" dataDxfId="50" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile[[#This Row],[HFC (CO2eq)]]-S2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{80E34099-D465-4BDA-A5F0-489FDE91E75C}" name="HFC per cápita" dataDxfId="24" dataCellStyle="Millares [0]">
+    <tableColumn id="19" xr3:uid="{80E34099-D465-4BDA-A5F0-489FDE91E75C}" name="HFC per cápita" dataDxfId="49" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>(Todo_Gases_Chile[[#This Row],[HFC (CO2eq)]]/Todo_Gases_Chile[[#This Row],[Población]])*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{840560B0-C3CA-4D1F-BBF2-E54ABB615FA1}" name="SF6" dataDxfId="25" dataCellStyle="Millares [0]">
+    <tableColumn id="29" xr3:uid="{840560B0-C3CA-4D1F-BBF2-E54ABB615FA1}" name="SF6" dataDxfId="48" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>+Todo_Gases_Chile[[#This Row],[SF6 (CO2eq)]]/22800</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{5DBC93A0-4F6F-4B47-BB59-263970ED047F}" name="Variación SF6" dataDxfId="58" dataCellStyle="Millares [0]">
+    <tableColumn id="30" xr3:uid="{5DBC93A0-4F6F-4B47-BB59-263970ED047F}" name="Variación SF6" dataDxfId="47" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile[[#This Row],[SF6]]-V2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{52A66CD1-361C-4E7F-98B3-EFF35B84353E}" name="SF6 (CO2eq)" dataDxfId="59" dataCellStyle="Millares [0]"/>
-    <tableColumn id="13" xr3:uid="{0CE9F65F-5906-41AE-88CD-AE9BCF01BA01}" name="Variación SF6 (CO2eq)" dataDxfId="16" dataCellStyle="Millares [0]">
+    <tableColumn id="6" xr3:uid="{52A66CD1-361C-4E7F-98B3-EFF35B84353E}" name="SF6 (CO2eq)" dataDxfId="46" dataCellStyle="Millares [0]"/>
+    <tableColumn id="13" xr3:uid="{0CE9F65F-5906-41AE-88CD-AE9BCF01BA01}" name="Variación SF6 (CO2eq)" dataDxfId="45" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile[[#This Row],[SF6 (CO2eq)]]-X2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{3ED8E3C7-5611-421C-ACA5-C1D3E5798319}" name="SF6 per cápita" dataDxfId="14" dataCellStyle="Millares [0]">
+    <tableColumn id="20" xr3:uid="{3ED8E3C7-5611-421C-ACA5-C1D3E5798319}" name="SF6 per cápita" dataDxfId="44" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>(Todo_Gases_Chile[[#This Row],[SF6 (CO2eq)]]/Todo_Gases_Chile[[#This Row],[Población]])*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1B015680-EBF5-4DEF-8D0E-8AC8104F202C}" name="CO2eq" dataDxfId="15" dataCellStyle="Millares [0]">
+    <tableColumn id="7" xr3:uid="{1B015680-EBF5-4DEF-8D0E-8AC8104F202C}" name="CO2eq" dataDxfId="43" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>+Todo_Gases_Chile[[#This Row],[CO2 (CO2eq)]]+Todo_Gases_Chile[[#This Row],[CH4 (CO2eq)]]+Todo_Gases_Chile[[#This Row],[N2O (CO2eq)]]+Todo_Gases_Chile[[#This Row],[HFC (CO2eq)]]+Todo_Gases_Chile[[#This Row],[SF6 (CO2eq)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{71C247BD-4FE6-493B-9C57-DCCBD431BB2B}" name="Variación CO2eq" dataDxfId="12" dataCellStyle="Millares [0]">
+    <tableColumn id="14" xr3:uid="{71C247BD-4FE6-493B-9C57-DCCBD431BB2B}" name="Variación CO2eq" dataDxfId="42" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile[[#This Row],[CO2eq]]-AA2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{923547CB-9689-4417-AC25-B9D303EBFE93}" name="CO2eq per cápita" dataDxfId="10" dataCellStyle="Millares [0]">
+    <tableColumn id="21" xr3:uid="{923547CB-9689-4417-AC25-B9D303EBFE93}" name="CO2eq per cápita" dataDxfId="41" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>(Todo_Gases_Chile[[#This Row],[CO2eq]]/Todo_Gases_Chile[[#This Row],[Población]])*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{07ACE464-88E8-4806-8DCD-D8EAF152256A}" name="Población" dataDxfId="11" dataCellStyle="Millares [0]"/>
-    <tableColumn id="31" xr3:uid="{0D264D80-644B-42F3-9B16-453DAC7ED6B9}" name="CO2e Total" dataDxfId="9" dataCellStyle="Millares [0]"/>
-    <tableColumn id="32" xr3:uid="{E1C19221-63D7-4ACE-B88F-F6572A53DCD5}" name="Variación CO2eq total" dataDxfId="8" dataCellStyle="Millares [0]"/>
-    <tableColumn id="33" xr3:uid="{37902D23-5D94-4905-A959-5952BB65AE26}" name="CO2eq total per cápita" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{07ACE464-88E8-4806-8DCD-D8EAF152256A}" name="Población" dataDxfId="40" dataCellStyle="Millares [0]"/>
+    <tableColumn id="31" xr3:uid="{0D264D80-644B-42F3-9B16-453DAC7ED6B9}" name="CO2e Total" dataDxfId="39" dataCellStyle="Millares [0]"/>
+    <tableColumn id="32" xr3:uid="{E1C19221-63D7-4ACE-B88F-F6572A53DCD5}" name="Variación CO2eq total" dataDxfId="38" dataCellStyle="Millares [0]"/>
+    <tableColumn id="33" xr3:uid="{37902D23-5D94-4905-A959-5952BB65AE26}" name="CO2eq total per cápita" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27BD6D74-DD3E-402C-94CF-D18B854691C6}" name="Todo_Gases_Chile_ton" displayName="Todo_Gases_Chile_ton" ref="A2:AI29" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27BD6D74-DD3E-402C-94CF-D18B854691C6}" name="Todo_Gases_Chile_ton" displayName="Todo_Gases_Chile_ton" ref="A2:AI29" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A2:AI29" xr:uid="{B70683CC-222B-4197-BEBB-B08A8E7898CC}"/>
   <tableColumns count="35">
-    <tableColumn id="1" xr3:uid="{5088B45F-6876-494E-AFC9-048004600909}" name="Año" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{127C8A41-49D9-42FF-A845-FF9BC6B9FCEB}" name="CO2" dataDxfId="43" dataCellStyle="Millares [0]">
+    <tableColumn id="1" xr3:uid="{5088B45F-6876-494E-AFC9-048004600909}" name="Año" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{127C8A41-49D9-42FF-A845-FF9BC6B9FCEB}" name="CO2" dataDxfId="33" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>'Ark1'!B3*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{92F189BB-6F84-42F9-8156-31A422E00569}" name="CO2 (CO2eq)" dataDxfId="42" dataCellStyle="Millares [0]">
+    <tableColumn id="8" xr3:uid="{92F189BB-6F84-42F9-8156-31A422E00569}" name="CO2 (CO2eq)" dataDxfId="32" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>'Ark1'!C3*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{107F1700-9923-4174-8881-6B1F0A88E02B}" name="Variación Anual CO2" dataDxfId="54" dataCellStyle="Millares [0]">
+    <tableColumn id="9" xr3:uid="{107F1700-9923-4174-8881-6B1F0A88E02B}" name="Variación Anual CO2" dataDxfId="31" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile_ton[[#This Row],[CO2]]-B2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{B2376B63-F4B2-4622-9F49-F52735352B66}" name="Variación Anual CO2 (CO2eq)" dataDxfId="41" dataCellStyle="Millares [0]">
+    <tableColumn id="22" xr3:uid="{B2376B63-F4B2-4622-9F49-F52735352B66}" name="Variación Anual CO2 (CO2eq)" dataDxfId="30" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile_ton[[#This Row],[CO2 (CO2eq)]]-C2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{42DE82C6-DB0A-41F9-A194-B0217E9F0BA3}" name="CO2 per cápita" dataDxfId="39" dataCellStyle="Millares [0]">
+    <tableColumn id="16" xr3:uid="{42DE82C6-DB0A-41F9-A194-B0217E9F0BA3}" name="CO2 per cápita" dataDxfId="29" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>(Todo_Gases_Chile_ton[[#This Row],[CO2]]/Todo_Gases_Chile_ton[[#This Row],[Población]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{23CF2737-354F-42F4-A37B-E81E3309638A}" name="CH4" dataDxfId="40" dataCellStyle="Millares [0]">
+    <tableColumn id="3" xr3:uid="{23CF2737-354F-42F4-A37B-E81E3309638A}" name="CH4" dataDxfId="28" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>'Ark1'!G3*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{6AEC6ADC-0D4D-4520-A42B-D1B61F4D43C9}" name="CH4 (CO2eq)" dataDxfId="53" dataCellStyle="Millares [0]">
+    <tableColumn id="23" xr3:uid="{6AEC6ADC-0D4D-4520-A42B-D1B61F4D43C9}" name="CH4 (CO2eq)" dataDxfId="27" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>Todo_Gases_Chile_ton[[#This Row],[CH4]]*25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{03D0DCE5-CEA8-4824-98B8-623FD5FBD11F}" name="Variación CH4" dataDxfId="52" dataCellStyle="Millares [0]">
+    <tableColumn id="10" xr3:uid="{03D0DCE5-CEA8-4824-98B8-623FD5FBD11F}" name="Variación CH4" dataDxfId="26" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile_ton[[#This Row],[CH4]]-G2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{7B20F448-C3B4-4652-B8A6-1DDDC80AE51E}" name="Variación CH4 (CO2eq)" dataDxfId="38" dataCellStyle="Millares [0]">
+    <tableColumn id="24" xr3:uid="{7B20F448-C3B4-4652-B8A6-1DDDC80AE51E}" name="Variación CH4 (CO2eq)" dataDxfId="25" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile_ton[[#This Row],[Variación CH4]]*25,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A3E52597-7364-4D28-BF23-F5B639DB9713}" name="CH4 per cápita" dataDxfId="33" dataCellStyle="Millares [0]">
+    <tableColumn id="17" xr3:uid="{A3E52597-7364-4D28-BF23-F5B639DB9713}" name="CH4 per cápita" dataDxfId="24" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>(Todo_Gases_Chile_ton[[#This Row],[CH4 (CO2eq)]]/Todo_Gases_Chile_ton[[#This Row],[Población]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1A6AE664-3174-4CAA-B27C-C71E9CE750D2}" name="N2O" dataDxfId="37" dataCellStyle="Millares [0]">
+    <tableColumn id="4" xr3:uid="{1A6AE664-3174-4CAA-B27C-C71E9CE750D2}" name="N2O" dataDxfId="23" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>'Ark1'!L3*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{57EF603E-8832-4E7F-A466-82029CBBE5C4}" name="N2O (CO2eq)" dataDxfId="51" dataCellStyle="Millares [0]">
+    <tableColumn id="25" xr3:uid="{57EF603E-8832-4E7F-A466-82029CBBE5C4}" name="N2O (CO2eq)" dataDxfId="22" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>Todo_Gases_Chile_ton[[#This Row],[N2O]]*298</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{9A683103-4030-419B-8D01-90641435BC25}" name="Variación N2O" dataDxfId="50" dataCellStyle="Millares [0]">
+    <tableColumn id="11" xr3:uid="{9A683103-4030-419B-8D01-90641435BC25}" name="Variación N2O" dataDxfId="21" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile_ton[[#This Row],[N2O]]-L2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{DA4FC015-3029-4BC2-8C39-C00E8D975617}" name="Variación N2O (CO2eq)" dataDxfId="29" dataCellStyle="Millares [0]">
+    <tableColumn id="26" xr3:uid="{DA4FC015-3029-4BC2-8C39-C00E8D975617}" name="Variación N2O (CO2eq)" dataDxfId="20" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile_ton[[#This Row],[Variación N2O]]*298,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{BD93884C-D0CF-468B-BF27-D9EDDAF49E66}" name="N2O per cápita" dataDxfId="28" dataCellStyle="Millares [0]">
+    <tableColumn id="18" xr3:uid="{BD93884C-D0CF-468B-BF27-D9EDDAF49E66}" name="N2O per cápita" dataDxfId="19" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>(Todo_Gases_Chile_ton[[#This Row],[N2O (CO2eq)]]/Todo_Gases_Chile_ton[[#This Row],[Población]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AC035BBB-522E-4A47-BAA0-804C9E279326}" name="HFC" dataDxfId="27" dataCellStyle="Millares [0]">
+    <tableColumn id="5" xr3:uid="{AC035BBB-522E-4A47-BAA0-804C9E279326}" name="HFC" dataDxfId="18" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>'Ark1'!Q3*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{A3F58F6B-E61A-454C-8319-4ED2602BE50E}" name="Variación HFC" dataDxfId="49" dataCellStyle="Millares [0]">
+    <tableColumn id="28" xr3:uid="{A3F58F6B-E61A-454C-8319-4ED2602BE50E}" name="Variación HFC" dataDxfId="17" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile_ton[[#This Row],[HFC]]-Q2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{548C79AC-7AFB-4533-AC02-58022C93C557}" name="HFC (CO2eq)" dataDxfId="48" dataCellStyle="Millares [0]">
+    <tableColumn id="27" xr3:uid="{548C79AC-7AFB-4533-AC02-58022C93C557}" name="HFC (CO2eq)" dataDxfId="16" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>'Ark1'!S3*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{E2A2A4BC-C3D7-4BFA-983D-59FA050688B6}" name="Variación HFC (CO2eq)" dataDxfId="23" dataCellStyle="Millares [0]">
+    <tableColumn id="12" xr3:uid="{E2A2A4BC-C3D7-4BFA-983D-59FA050688B6}" name="Variación HFC (CO2eq)" dataDxfId="15" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile_ton[[#This Row],[HFC (CO2eq)]]-S2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{7D01BE19-6C16-430E-A725-C2A77965B314}" name="HFC per cápita" dataDxfId="22" dataCellStyle="Millares [0]">
+    <tableColumn id="19" xr3:uid="{7D01BE19-6C16-430E-A725-C2A77965B314}" name="HFC per cápita" dataDxfId="14" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>(Todo_Gases_Chile_ton[[#This Row],[HFC (CO2eq)]]/Todo_Gases_Chile_ton[[#This Row],[Población]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{FBB54040-259E-4E8E-9768-90BA043F9025}" name="SF6" dataDxfId="20" dataCellStyle="Millares [0]">
+    <tableColumn id="29" xr3:uid="{FBB54040-259E-4E8E-9768-90BA043F9025}" name="SF6" dataDxfId="13" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>'Ark1'!V3*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{2145433F-448C-4317-BEDF-D19084E6E2E0}" name="Variación SF6" dataDxfId="21" dataCellStyle="Millares [0]">
+    <tableColumn id="30" xr3:uid="{2145433F-448C-4317-BEDF-D19084E6E2E0}" name="Variación SF6" dataDxfId="12" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile_ton[[#This Row],[SF6]]-V2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{90EBD305-F779-4E81-98F2-9A36FD546C98}" name="SF6 (CO2eq)" dataDxfId="47" dataCellStyle="Millares [0]">
+    <tableColumn id="6" xr3:uid="{90EBD305-F779-4E81-98F2-9A36FD546C98}" name="SF6 (CO2eq)" dataDxfId="11" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>'Ark1'!X3*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E184A7E7-427E-4B12-85E4-5CD3D99FCB2B}" name="Variación SF6 (CO2eq)" dataDxfId="19" dataCellStyle="Millares [0]">
+    <tableColumn id="13" xr3:uid="{E184A7E7-427E-4B12-85E4-5CD3D99FCB2B}" name="Variación SF6 (CO2eq)" dataDxfId="10" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile_ton[[#This Row],[SF6 (CO2eq)]]-X2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{2D72BB85-4D7A-4906-92BF-09BB6A5E7770}" name="SF6 per cápita" dataDxfId="17" dataCellStyle="Millares [0]">
+    <tableColumn id="20" xr3:uid="{2D72BB85-4D7A-4906-92BF-09BB6A5E7770}" name="SF6 per cápita" dataDxfId="9" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>(Todo_Gases_Chile_ton[[#This Row],[SF6 (CO2eq)]]/Todo_Gases_Chile_ton[[#This Row],[Población]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{21B4A9FB-E574-4076-BEAA-6AD48EE16836}" name="ton netas CO2eq" dataDxfId="18" dataCellStyle="Millares [0]">
+    <tableColumn id="7" xr3:uid="{21B4A9FB-E574-4076-BEAA-6AD48EE16836}" name="ton netas CO2eq" dataDxfId="8" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>+Todo_Gases_Chile_ton[[#This Row],[CO2 (CO2eq)]]+Todo_Gases_Chile_ton[[#This Row],[CH4 (CO2eq)]]+Todo_Gases_Chile_ton[[#This Row],[N2O (CO2eq)]]+Todo_Gases_Chile_ton[[#This Row],[HFC (CO2eq)]]+Todo_Gases_Chile_ton[[#This Row],[SF6 (CO2eq)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D614AEA6-3DC5-4A6D-A784-0DA8618F9E05}" name="Variación ton CO2eq" dataDxfId="5" dataCellStyle="Millares [0]">
+    <tableColumn id="14" xr3:uid="{D614AEA6-3DC5-4A6D-A784-0DA8618F9E05}" name="Variación ton CO2eq" dataDxfId="7" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(Todo_Gases_Chile_ton[[#This Row],[ton netas CO2eq]]-AA2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{FC4DB636-2EDD-4D4D-A0BD-B98B9CEDAE35}" name="Variacion % Emisiones Netas Anuales" dataDxfId="3" dataCellStyle="Millares [0]">
+    <tableColumn id="34" xr3:uid="{FC4DB636-2EDD-4D4D-A0BD-B98B9CEDAE35}" name="Variacion % Emisiones Netas Anuales" dataDxfId="6" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>+IFERROR(Todo_Gases_Chile_ton[[#This Row],[Variación ton CO2eq]]/AA2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{E219BADA-A5A5-4ACD-A24B-50CC71C974E1}" name="ton CO2eq netas per cápita" dataDxfId="4" dataCellStyle="Millares [0]">
+    <tableColumn id="21" xr3:uid="{E219BADA-A5A5-4ACD-A24B-50CC71C974E1}" name="ton CO2eq netas per cápita" dataDxfId="5" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>(Todo_Gases_Chile_ton[[#This Row],[ton netas CO2eq]]/Todo_Gases_Chile_ton[[#This Row],[Población]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{76BA42A2-2E99-466B-9101-91C8697E8618}" name="Población" dataDxfId="13" dataCellStyle="Millares [0]"/>
-    <tableColumn id="31" xr3:uid="{73A4C932-6BD4-4931-9A76-233C9D1AC08E}" name="CO2e Total" dataDxfId="6" dataCellStyle="Millares [0]"/>
+    <tableColumn id="15" xr3:uid="{76BA42A2-2E99-466B-9101-91C8697E8618}" name="Población" dataDxfId="4" dataCellStyle="Millares [0]"/>
+    <tableColumn id="31" xr3:uid="{73A4C932-6BD4-4931-9A76-233C9D1AC08E}" name="CO2e Total" dataDxfId="3" dataCellStyle="Millares [0]"/>
     <tableColumn id="32" xr3:uid="{19C05271-B5B8-4ABE-B930-729F3AC1D46A}" name="Variación CO2eq total" dataDxfId="2" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>+IFERROR(Todo_Gases_Chile_ton[[#This Row],[CO2e Total]]-AF2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{F647EDCB-19D5-4754-BEC6-A348D53A9531}" name="Variacion % Emisiones Totales Anuales" dataDxfId="0" dataCellStyle="Millares [0]">
+    <tableColumn id="35" xr3:uid="{F647EDCB-19D5-4754-BEC6-A348D53A9531}" name="Variacion % Emisiones Totales Anuales" dataDxfId="1" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>+IFERROR(Todo_Gases_Chile_ton[[#This Row],[Variación CO2eq total]]/AF2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{588A5335-BEA7-4663-826B-990585732E53}" name="ton CO2eq total per cápita" dataDxfId="1" dataCellStyle="Millares [0]">
+    <tableColumn id="33" xr3:uid="{588A5335-BEA7-4663-826B-990585732E53}" name="ton CO2eq total per cápita" dataDxfId="0" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>+Todo_Gases_Chile_ton[[#This Row],[CO2e Total]]/Todo_Gases_Chile_ton[[#This Row],[Población]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2754,47 +2743,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH49"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="AE2" sqref="AE2:AG2"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" style="6" customWidth="1"/>
     <col min="19" max="19" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="3" customWidth="1"/>
-    <col min="22" max="23" width="12.6640625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.6640625" style="3" customWidth="1"/>
-    <col min="30" max="30" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.5546875" customWidth="1"/>
+    <col min="22" max="23" width="12.7109375" style="6" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="3" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
@@ -2835,7 +2824,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:60" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2963,7 +2952,7 @@
       <c r="BG2" s="3"/>
       <c r="BH2" s="3"/>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1990</v>
       </c>
@@ -3101,7 +3090,7 @@
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1991</v>
       </c>
@@ -3239,7 +3228,7 @@
       <c r="BA4" s="3"/>
       <c r="BB4" s="3"/>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1992</v>
       </c>
@@ -3377,7 +3366,7 @@
       <c r="BA5" s="3"/>
       <c r="BB5" s="3"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1993</v>
       </c>
@@ -3515,7 +3504,7 @@
       <c r="BA6" s="3"/>
       <c r="BB6" s="3"/>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1994</v>
       </c>
@@ -3653,7 +3642,7 @@
       <c r="BA7" s="3"/>
       <c r="BB7" s="3"/>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1995</v>
       </c>
@@ -3791,7 +3780,7 @@
       <c r="BA8" s="3"/>
       <c r="BB8" s="3"/>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1996</v>
       </c>
@@ -3929,7 +3918,7 @@
       <c r="BA9" s="3"/>
       <c r="BB9" s="3"/>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1997</v>
       </c>
@@ -4067,7 +4056,7 @@
       <c r="BA10" s="3"/>
       <c r="BB10" s="3"/>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1998</v>
       </c>
@@ -4205,7 +4194,7 @@
       <c r="BA11" s="3"/>
       <c r="BB11" s="3"/>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1999</v>
       </c>
@@ -4343,7 +4332,7 @@
       <c r="BA12" s="3"/>
       <c r="BB12" s="3"/>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2000</v>
       </c>
@@ -4481,7 +4470,7 @@
       <c r="BA13" s="3"/>
       <c r="BB13" s="3"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2001</v>
       </c>
@@ -4619,7 +4608,7 @@
       <c r="BA14" s="3"/>
       <c r="BB14" s="3"/>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2002</v>
       </c>
@@ -4757,7 +4746,7 @@
       <c r="BA15" s="3"/>
       <c r="BB15" s="3"/>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2003</v>
       </c>
@@ -4895,7 +4884,7 @@
       <c r="BA16" s="3"/>
       <c r="BB16" s="3"/>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2004</v>
       </c>
@@ -5033,7 +5022,7 @@
       <c r="BA17" s="3"/>
       <c r="BB17" s="3"/>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2005</v>
       </c>
@@ -5171,7 +5160,7 @@
       <c r="BA18" s="3"/>
       <c r="BB18" s="3"/>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2006</v>
       </c>
@@ -5309,7 +5298,7 @@
       <c r="BA19" s="3"/>
       <c r="BB19" s="3"/>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2007</v>
       </c>
@@ -5447,7 +5436,7 @@
       <c r="BA20" s="3"/>
       <c r="BB20" s="3"/>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2008</v>
       </c>
@@ -5585,7 +5574,7 @@
       <c r="BA21" s="3"/>
       <c r="BB21" s="3"/>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2009</v>
       </c>
@@ -5723,7 +5712,7 @@
       <c r="BA22" s="3"/>
       <c r="BB22" s="3"/>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2010</v>
       </c>
@@ -5861,7 +5850,7 @@
       <c r="BA23" s="3"/>
       <c r="BB23" s="3"/>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2011</v>
       </c>
@@ -5999,7 +5988,7 @@
       <c r="BA24" s="3"/>
       <c r="BB24" s="3"/>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2012</v>
       </c>
@@ -6137,7 +6126,7 @@
       <c r="BA25" s="3"/>
       <c r="BB25" s="3"/>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2013</v>
       </c>
@@ -6275,7 +6264,7 @@
       <c r="BA26" s="3"/>
       <c r="BB26" s="3"/>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2014</v>
       </c>
@@ -6413,7 +6402,7 @@
       <c r="BA27" s="3"/>
       <c r="BB27" s="3"/>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2015</v>
       </c>
@@ -6551,7 +6540,7 @@
       <c r="BA28" s="3"/>
       <c r="BB28" s="3"/>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2016</v>
       </c>
@@ -6689,7 +6678,7 @@
       <c r="BA29" s="3"/>
       <c r="BB29" s="3"/>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
@@ -6713,7 +6702,7 @@
       <c r="BA30" s="3"/>
       <c r="BB30" s="3"/>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
@@ -6737,7 +6726,7 @@
       <c r="BA31" s="3"/>
       <c r="BB31" s="3"/>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
@@ -6761,7 +6750,7 @@
       <c r="BA32" s="3"/>
       <c r="BB32" s="3"/>
     </row>
-    <row r="33" spans="33:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="33:54" x14ac:dyDescent="0.25">
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
@@ -6785,7 +6774,7 @@
       <c r="BA33" s="3"/>
       <c r="BB33" s="3"/>
     </row>
-    <row r="34" spans="33:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="33:54" x14ac:dyDescent="0.25">
       <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
@@ -6809,7 +6798,7 @@
       <c r="BA34" s="3"/>
       <c r="BB34" s="3"/>
     </row>
-    <row r="35" spans="33:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="33:54" x14ac:dyDescent="0.25">
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
@@ -6833,7 +6822,7 @@
       <c r="BA35" s="3"/>
       <c r="BB35" s="3"/>
     </row>
-    <row r="36" spans="33:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="33:54" x14ac:dyDescent="0.25">
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="3"/>
@@ -6857,7 +6846,7 @@
       <c r="BA36" s="3"/>
       <c r="BB36" s="3"/>
     </row>
-    <row r="37" spans="33:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="33:54" x14ac:dyDescent="0.25">
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
@@ -6881,7 +6870,7 @@
       <c r="BA37" s="3"/>
       <c r="BB37" s="3"/>
     </row>
-    <row r="38" spans="33:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="33:54" x14ac:dyDescent="0.25">
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
@@ -6905,7 +6894,7 @@
       <c r="BA38" s="3"/>
       <c r="BB38" s="3"/>
     </row>
-    <row r="39" spans="33:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="33:54" x14ac:dyDescent="0.25">
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
@@ -6929,7 +6918,7 @@
       <c r="BA39" s="3"/>
       <c r="BB39" s="3"/>
     </row>
-    <row r="40" spans="33:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="33:54" x14ac:dyDescent="0.25">
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
@@ -6953,7 +6942,7 @@
       <c r="BA40" s="3"/>
       <c r="BB40" s="3"/>
     </row>
-    <row r="41" spans="33:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="33:54" x14ac:dyDescent="0.25">
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
@@ -6977,7 +6966,7 @@
       <c r="BA41" s="3"/>
       <c r="BB41" s="3"/>
     </row>
-    <row r="42" spans="33:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="33:54" x14ac:dyDescent="0.25">
       <c r="AG42" s="3"/>
       <c r="AH42" s="3"/>
       <c r="AI42" s="3"/>
@@ -7001,7 +6990,7 @@
       <c r="BA42" s="3"/>
       <c r="BB42" s="3"/>
     </row>
-    <row r="43" spans="33:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="33:54" x14ac:dyDescent="0.25">
       <c r="AG43" s="3"/>
       <c r="AH43" s="3"/>
       <c r="AI43" s="3"/>
@@ -7025,7 +7014,7 @@
       <c r="BA43" s="3"/>
       <c r="BB43" s="3"/>
     </row>
-    <row r="44" spans="33:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="33:54" x14ac:dyDescent="0.25">
       <c r="AG44" s="3"/>
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
@@ -7049,7 +7038,7 @@
       <c r="BA44" s="3"/>
       <c r="BB44" s="3"/>
     </row>
-    <row r="45" spans="33:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="33:54" x14ac:dyDescent="0.25">
       <c r="AG45" s="3"/>
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
@@ -7073,7 +7062,7 @@
       <c r="BA45" s="3"/>
       <c r="BB45" s="3"/>
     </row>
-    <row r="46" spans="33:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="33:54" x14ac:dyDescent="0.25">
       <c r="AG46" s="3"/>
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
@@ -7097,7 +7086,7 @@
       <c r="BA46" s="3"/>
       <c r="BB46" s="3"/>
     </row>
-    <row r="47" spans="33:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="33:54" x14ac:dyDescent="0.25">
       <c r="AG47" s="3"/>
       <c r="AH47" s="3"/>
       <c r="AI47" s="3"/>
@@ -7121,7 +7110,7 @@
       <c r="BA47" s="3"/>
       <c r="BB47" s="3"/>
     </row>
-    <row r="48" spans="33:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="33:54" x14ac:dyDescent="0.25">
       <c r="AG48" s="3"/>
       <c r="AH48" s="3"/>
       <c r="AI48" s="3"/>
@@ -7145,7 +7134,7 @@
       <c r="BA48" s="3"/>
       <c r="BB48" s="3"/>
     </row>
-    <row r="49" spans="33:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="33:54" x14ac:dyDescent="0.25">
       <c r="AG49" s="3"/>
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
@@ -7186,45 +7175,45 @@
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="AD3" sqref="AD3"/>
+      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="14.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="7" customWidth="1"/>
+    <col min="2" max="4" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="7" customWidth="1"/>
     <col min="6" max="6" width="17" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" style="7" customWidth="1"/>
     <col min="12" max="12" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="8.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" style="7" customWidth="1"/>
     <col min="19" max="19" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="12.6640625" style="7" customWidth="1"/>
-    <col min="24" max="24" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.21875" style="7" customWidth="1"/>
-    <col min="30" max="30" width="13.88671875" style="7" customWidth="1"/>
-    <col min="31" max="31" width="10.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="12.7109375" style="7" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.28515625" style="7" customWidth="1"/>
+    <col min="30" max="30" width="13.85546875" style="7" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12" style="7" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12" style="7" customWidth="1"/>
-    <col min="35" max="35" width="10.88671875" style="7" customWidth="1"/>
-    <col min="36" max="16384" width="9.109375" style="7"/>
+    <col min="35" max="35" width="10.85546875" style="7" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
@@ -7279,7 +7268,7 @@
       </c>
       <c r="AA1" s="19"/>
     </row>
-    <row r="2" spans="1:35" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -7386,7 +7375,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1990</v>
       </c>
@@ -7525,7 +7514,7 @@
         <v>3.9468800590788371</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1991</v>
       </c>
@@ -7664,7 +7653,7 @@
         <v>3.7759667577711444</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1992</v>
       </c>
@@ -7803,7 +7792,7 @@
         <v>3.8275263935355901</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1993</v>
       </c>
@@ -7942,7 +7931,7 @@
         <v>3.9717157684234019</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1994</v>
       </c>
@@ -8081,7 +8070,7 @@
         <v>4.1172617944959091</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1995</v>
       </c>
@@ -8220,7 +8209,7 @@
         <v>4.2730737572164763</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1996</v>
       </c>
@@ -8359,7 +8348,7 @@
         <v>4.642807250138584</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1997</v>
       </c>
@@ -8498,7 +8487,7 @@
         <v>5.0872476126454176</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1998</v>
       </c>
@@ -8637,7 +8626,7 @@
         <v>5.0852572951284412</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1999</v>
       </c>
@@ -8776,7 +8765,7 @@
         <v>5.2286666243109963</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2000</v>
       </c>
@@ -8915,7 +8904,7 @@
         <v>4.9915288957174662</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2001</v>
       </c>
@@ -9054,7 +9043,7 @@
         <v>4.8151699478178775</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2002</v>
       </c>
@@ -9193,7 +9182,7 @@
         <v>4.8547591587331551</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2003</v>
       </c>
@@ -9332,7 +9321,7 @@
         <v>4.8531333697372778</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2004</v>
       </c>
@@ -9471,7 +9460,7 @@
         <v>5.1559301687339758</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2005</v>
       </c>
@@ -9610,7 +9599,7 @@
         <v>5.2110969589998488</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2006</v>
       </c>
@@ -9749,7 +9738,7 @@
         <v>5.2333924039881428</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2007</v>
       </c>
@@ -9888,7 +9877,7 @@
         <v>5.669956585435151</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2008</v>
       </c>
@@ -10027,7 +10016,7 @@
         <v>5.6451860102273752</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2009</v>
       </c>
@@ -10166,7 +10155,7 @@
         <v>5.3839321849395638</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2010</v>
       </c>
@@ -10305,7 +10294,7 @@
         <v>5.3834183515228826</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2011</v>
       </c>
@@ -10444,7 +10433,7 @@
         <v>5.7876590955778324</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2012</v>
       </c>
@@ -10583,7 +10572,7 @@
         <v>5.9903354565944236</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2013</v>
       </c>
@@ -10722,7 +10711,7 @@
         <v>5.9223784367357482</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2014</v>
       </c>
@@ -10861,7 +10850,7 @@
         <v>5.7047490054611769</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2015</v>
       </c>
@@ -11000,7 +10989,7 @@
         <v>6.0230796350436027</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2016</v>
       </c>
